--- a/public/download/sample/DD House Sample.xlsx
+++ b/public/download/sample/DD House Sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,13 +73,13 @@
     <t>Brahmanbaria</t>
   </si>
   <si>
-    <t>Emil Telecom</t>
-  </si>
-  <si>
-    <t>MYMVAI07</t>
-  </si>
-  <si>
-    <t>patwarytelecom1@gmail.com</t>
+    <t>Patwary Telecom</t>
+  </si>
+  <si>
+    <t>MYMVAI01</t>
+  </si>
+  <si>
+    <t>patwarytelecom@gmail.com</t>
   </si>
   <si>
     <t>Kishoreganj</t>
@@ -109,13 +109,13 @@
     <t>DHK1054</t>
   </si>
   <si>
-    <t>Nilima Store</t>
-  </si>
-  <si>
-    <t>MYMVAI08</t>
-  </si>
-  <si>
-    <t>blmodinastore2@gmail.com</t>
+    <t>M/S Modina Store</t>
+  </si>
+  <si>
+    <t>MYMVAI02</t>
+  </si>
+  <si>
+    <t>blmodinastore@gmail.com</t>
   </si>
   <si>
     <t>Mithamoin Bazar, Mithamoin, Kishoreganj</t>
@@ -136,13 +136,13 @@
     <t>DHK1055</t>
   </si>
   <si>
-    <t>Nabeeha Enterprise</t>
-  </si>
-  <si>
-    <t>MYMVAI09</t>
-  </si>
-  <si>
-    <t>blsumayaenterprise1@gmail.com</t>
+    <t>Sumaya Enterprise</t>
+  </si>
+  <si>
+    <t>MYMVAI03</t>
+  </si>
+  <si>
+    <t>blsumayaenterprise@gmail.com</t>
   </si>
   <si>
     <t>Vagolpur, Bajitpur, Kishoreganj.</t>
@@ -165,11 +165,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -196,6 +196,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -203,6 +278,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -210,33 +308,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,85 +324,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,144 +341,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -491,37 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,11 +535,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,6 +576,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,30 +622,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -617,35 +632,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,131 +658,131 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -792,13 +792,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1126,7 +1123,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1152,55 +1149,55 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:17">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1217,7 +1214,7 @@
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1229,13 +1226,13 @@
       <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -1247,7 +1244,7 @@
       <c r="P2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <v>39986</v>
       </c>
     </row>
@@ -1264,7 +1261,7 @@
       <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1276,13 +1273,13 @@
       <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -1294,7 +1291,7 @@
       <c r="P3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <v>44823</v>
       </c>
     </row>
@@ -1311,7 +1308,7 @@
       <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1323,16 +1320,16 @@
       <c r="H4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>45</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -1341,15 +1338,15 @@
       <c r="P4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <v>44889</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="patwarytelecom1@gmail.com"/>
-    <hyperlink ref="E3" r:id="rId2" display="blmodinastore2@gmail.com" tooltip="mailto:blmodinastore2@gmail.com"/>
-    <hyperlink ref="E4" r:id="rId3" display="blsumayaenterprise1@gmail.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="patwarytelecom@gmail.com" tooltip="mailto:patwarytelecom@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId2" display="blmodinastore@gmail.com" tooltip="mailto:blmodinastore@gmail.com"/>
+    <hyperlink ref="E4" r:id="rId3" display="blsumayaenterprise@gmail.com" tooltip="mailto:blsumayaenterprise@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
